--- a/biology/Microbiologie/Epiplocylididae/Epiplocylididae.xlsx
+++ b/biology/Microbiologie/Epiplocylididae/Epiplocylididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Epiplocylididae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Epiplocylis, dont l'origine n'a pas été explicitée par l'auteur. Ce nom pourrait dériver du grec ἐπιπλέω / epipléo, « flotter ; naviguer », et κοῖλος /  koílos, creux.
-C'est sans doute la complexité du nom qui a pu entrainer la création par divers auteurs de nombreuses variantes orthographiques erronées : Epiplacylis, Epiplosylis, Epiplocysis, Epyplocylis et Epipocylis[1].
+C'est sans doute la complexité du nom qui a pu entrainer la création par divers auteurs de nombreuses variantes orthographiques erronées : Epiplacylis, Epiplosylis, Epiplocysis, Epyplocylis et Epipocylis.
 			Epiplocylis undellaEpiplocylis undella var. blandaEpiplocylis acuminata(d'après E. Jörgensen, 1924)
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Atwood Kofoid et Arthur S. Campbell (d) décrivent ainsi le genre Epiplocylis : 
-« forme de gland de la lorica (loge), avec ou sans col bas, ou zone suborale épaissie ; rebord buccal sans dents ; avec une zone réticulée sur la partie postérieure qui s'étend parfois vers le collet, mais jamais vers le rebord buccal ; une zone sous-orale exempte de réticulations habituellement présentes ; toujours avec une corne aborale assez courte ; parois avec deux lames bien développées, l'extérieur, donnant naissance au réticulum irrégulier grossier et élevé, parfois avec une structure secondaire et généralement avec une structure primaire[2]. »
+« forme de gland de la lorica (loge), avec ou sans col bas, ou zone suborale épaissie ; rebord buccal sans dents ; avec une zone réticulée sur la partie postérieure qui s'étend parfois vers le collet, mais jamais vers le rebord buccal ; une zone sous-orale exempte de réticulations habituellement présentes ; toujours avec une corne aborale assez courte ; parois avec deux lames bien développées, l'extérieur, donnant naissance au réticulum irrégulier grossier et élevé, parfois avec une structure secondaire et généralement avec une structure primaire. »
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre  Epiplocylis est largement réparti dans beaucoup de mers et océans du globe : mer Méditerranée, Mer Rouge, Océan Atlantique, Grande Barrière de corail, Mer du Japon, Océan Pacifique[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre  Epiplocylis est largement réparti dans beaucoup de mers et océans du globe : mer Méditerranée, Mer Rouge, Océan Atlantique, Grande Barrière de corail, Mer du Japon, Océan Pacifique.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (28 septembre 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (28 septembre 2022) :
 Epicancella Kofoid &amp; Campbell, 1939
 Epiplocylis Jörgensen, 1924
 Espèce type : Epiplocylis acuminata (Daday) Jorgensen
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Epiplocylididae  Kofoid &amp; Campbell, 1939[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Epiplocylididae  Kofoid &amp; Campbell, 1939.
 </t>
         </is>
       </c>
@@ -672,7 +694,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) E. Jörgensen. 1924. Mediterranean Tintinnidae. Rept. Danish Ooceanograph. Exped. 1908-1910 to the Mediterranean and adjacent seas, 2: (Biol.), 110 pp., (114 figs. in the text) : télécharger en ligne. Genre Epiplocylis en pages 54-57.</t>
         </is>
